--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.5750640897858</v>
+        <v>11.828023</v>
       </c>
       <c r="H2">
-        <v>11.5750640897858</v>
+        <v>23.656046</v>
       </c>
       <c r="I2">
-        <v>0.1837373108247387</v>
+        <v>0.1833038992892811</v>
       </c>
       <c r="J2">
-        <v>0.1837373108247387</v>
+        <v>0.135872590447369</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N2">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O2">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P2">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q2">
-        <v>366.4178723184143</v>
+        <v>375.6952628384385</v>
       </c>
       <c r="R2">
-        <v>366.4178723184143</v>
+        <v>1502.781051353754</v>
       </c>
       <c r="S2">
-        <v>0.04796678640738646</v>
+        <v>0.04572067110830632</v>
       </c>
       <c r="T2">
-        <v>0.04796678640738646</v>
+        <v>0.02588808199697955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.5750640897858</v>
+        <v>11.828023</v>
       </c>
       <c r="H3">
-        <v>11.5750640897858</v>
+        <v>23.656046</v>
       </c>
       <c r="I3">
-        <v>0.1837373108247387</v>
+        <v>0.1833038992892811</v>
       </c>
       <c r="J3">
-        <v>0.1837373108247387</v>
+        <v>0.135872590447369</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N3">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O3">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P3">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q3">
-        <v>186.9787707782612</v>
+        <v>210.7491077062657</v>
       </c>
       <c r="R3">
-        <v>186.9787707782612</v>
+        <v>1264.494646237594</v>
       </c>
       <c r="S3">
-        <v>0.02447689219930499</v>
+        <v>0.02564735729433678</v>
       </c>
       <c r="T3">
-        <v>0.02447689219930499</v>
+        <v>0.02178317397404727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.5750640897858</v>
+        <v>11.828023</v>
       </c>
       <c r="H4">
-        <v>11.5750640897858</v>
+        <v>23.656046</v>
       </c>
       <c r="I4">
-        <v>0.1837373108247387</v>
+        <v>0.1833038992892811</v>
       </c>
       <c r="J4">
-        <v>0.1837373108247387</v>
+        <v>0.135872590447369</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N4">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O4">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P4">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q4">
-        <v>135.3034202320823</v>
+        <v>157.6375704370437</v>
       </c>
       <c r="R4">
-        <v>135.3034202320823</v>
+        <v>945.825422622262</v>
       </c>
       <c r="S4">
-        <v>0.01771220988047581</v>
+        <v>0.01918388711588286</v>
       </c>
       <c r="T4">
-        <v>0.01771220988047581</v>
+        <v>0.01629352863719936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.5750640897858</v>
+        <v>11.828023</v>
       </c>
       <c r="H5">
-        <v>11.5750640897858</v>
+        <v>23.656046</v>
       </c>
       <c r="I5">
-        <v>0.1837373108247387</v>
+        <v>0.1833038992892811</v>
       </c>
       <c r="J5">
-        <v>0.1837373108247387</v>
+        <v>0.135872590447369</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N5">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O5">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P5">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q5">
-        <v>255.1194328048563</v>
+        <v>284.3680594248647</v>
       </c>
       <c r="R5">
-        <v>255.1194328048563</v>
+        <v>1706.208356549188</v>
       </c>
       <c r="S5">
-        <v>0.03339700453009029</v>
+        <v>0.0346065010786751</v>
       </c>
       <c r="T5">
-        <v>0.03339700453009029</v>
+        <v>0.02939247989485023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.5750640897858</v>
+        <v>11.828023</v>
       </c>
       <c r="H6">
-        <v>11.5750640897858</v>
+        <v>23.656046</v>
       </c>
       <c r="I6">
-        <v>0.1837373108247387</v>
+        <v>0.1833038992892811</v>
       </c>
       <c r="J6">
-        <v>0.1837373108247387</v>
+        <v>0.135872590447369</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N6">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O6">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P6">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q6">
-        <v>269.9501300979265</v>
+        <v>278.4046777568627</v>
       </c>
       <c r="R6">
-        <v>269.9501300979265</v>
+        <v>1670.428066541176</v>
       </c>
       <c r="S6">
-        <v>0.03533845155839221</v>
+        <v>0.03388078042445095</v>
       </c>
       <c r="T6">
-        <v>0.03533845155839221</v>
+        <v>0.02877610062870983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.5750640897858</v>
+        <v>11.828023</v>
       </c>
       <c r="H7">
-        <v>11.5750640897858</v>
+        <v>23.656046</v>
       </c>
       <c r="I7">
-        <v>0.1837373108247387</v>
+        <v>0.1833038992892811</v>
       </c>
       <c r="J7">
-        <v>0.1837373108247387</v>
+        <v>0.135872590447369</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N7">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O7">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P7">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q7">
-        <v>189.7981242971985</v>
+        <v>199.387574048037</v>
       </c>
       <c r="R7">
-        <v>189.7981242971985</v>
+        <v>797.550296192148</v>
       </c>
       <c r="S7">
-        <v>0.02484596624908894</v>
+        <v>0.02426470226762911</v>
       </c>
       <c r="T7">
-        <v>0.02484596624908894</v>
+        <v>0.01373922531558282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.2625673850589</v>
+        <v>10.83537233333333</v>
       </c>
       <c r="H8">
-        <v>10.2625673850589</v>
+        <v>32.506117</v>
       </c>
       <c r="I8">
-        <v>0.1629033341726652</v>
+        <v>0.167920370035736</v>
       </c>
       <c r="J8">
-        <v>0.1629033341726652</v>
+        <v>0.1867045034565481</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N8">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O8">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P8">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q8">
-        <v>324.8697438380422</v>
+        <v>344.1655513118305</v>
       </c>
       <c r="R8">
-        <v>324.8697438380422</v>
+        <v>2064.993307870983</v>
       </c>
       <c r="S8">
-        <v>0.04252783171930068</v>
+        <v>0.04188362626521566</v>
       </c>
       <c r="T8">
-        <v>0.04252783171930068</v>
+        <v>0.0355731901391894</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.2625673850589</v>
+        <v>10.83537233333333</v>
       </c>
       <c r="H9">
-        <v>10.2625673850589</v>
+        <v>32.506117</v>
       </c>
       <c r="I9">
-        <v>0.1629033341726652</v>
+        <v>0.167920370035736</v>
       </c>
       <c r="J9">
-        <v>0.1629033341726652</v>
+        <v>0.1867045034565481</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N9">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O9">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P9">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q9">
-        <v>165.7772449295265</v>
+        <v>193.0622768416292</v>
       </c>
       <c r="R9">
-        <v>165.7772449295265</v>
+        <v>1737.560491574663</v>
       </c>
       <c r="S9">
-        <v>0.02170145699615201</v>
+        <v>0.02349493788185664</v>
       </c>
       <c r="T9">
-        <v>0.02170145699615201</v>
+        <v>0.02993257629917255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.2625673850589</v>
+        <v>10.83537233333333</v>
       </c>
       <c r="H10">
-        <v>10.2625673850589</v>
+        <v>32.506117</v>
       </c>
       <c r="I10">
-        <v>0.1629033341726652</v>
+        <v>0.167920370035736</v>
       </c>
       <c r="J10">
-        <v>0.1629033341726652</v>
+        <v>0.1867045034565481</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N10">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O10">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P10">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q10">
-        <v>119.9613632192322</v>
+        <v>144.4080527580499</v>
       </c>
       <c r="R10">
-        <v>119.9613632192322</v>
+        <v>1299.672474822449</v>
       </c>
       <c r="S10">
-        <v>0.01570382211508366</v>
+        <v>0.01757390560546145</v>
       </c>
       <c r="T10">
-        <v>0.01570382211508366</v>
+        <v>0.02238917476841451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.2625673850589</v>
+        <v>10.83537233333333</v>
       </c>
       <c r="H11">
-        <v>10.2625673850589</v>
+        <v>32.506117</v>
       </c>
       <c r="I11">
-        <v>0.1629033341726652</v>
+        <v>0.167920370035736</v>
       </c>
       <c r="J11">
-        <v>0.1629033341726652</v>
+        <v>0.1867045034565481</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N11">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O11">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P11">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q11">
-        <v>226.1914361846349</v>
+        <v>260.5028586413696</v>
       </c>
       <c r="R11">
-        <v>226.1914361846349</v>
+        <v>2344.525727772326</v>
       </c>
       <c r="S11">
-        <v>0.02961011764518976</v>
+        <v>0.03170219776723011</v>
       </c>
       <c r="T11">
-        <v>0.02961011764518976</v>
+        <v>0.0403886342790401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.2625673850589</v>
+        <v>10.83537233333333</v>
       </c>
       <c r="H12">
-        <v>10.2625673850589</v>
+        <v>32.506117</v>
       </c>
       <c r="I12">
-        <v>0.1629033341726652</v>
+        <v>0.167920370035736</v>
       </c>
       <c r="J12">
-        <v>0.1629033341726652</v>
+        <v>0.1867045034565481</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N12">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O12">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P12">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q12">
-        <v>239.3404804712968</v>
+        <v>255.0399456305836</v>
       </c>
       <c r="R12">
-        <v>239.3404804712968</v>
+        <v>2295.359510675252</v>
       </c>
       <c r="S12">
-        <v>0.03133142396348934</v>
+        <v>0.03103738222717672</v>
       </c>
       <c r="T12">
-        <v>0.03133142396348934</v>
+        <v>0.03954165856122428</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.2625673850589</v>
+        <v>10.83537233333333</v>
       </c>
       <c r="H13">
-        <v>10.2625673850589</v>
+        <v>32.506117</v>
       </c>
       <c r="I13">
-        <v>0.1629033341726652</v>
+        <v>0.167920370035736</v>
       </c>
       <c r="J13">
-        <v>0.1629033341726652</v>
+        <v>0.1867045034565481</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N13">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O13">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P13">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q13">
-        <v>168.2769119072609</v>
+        <v>182.654244369541</v>
       </c>
       <c r="R13">
-        <v>168.2769119072609</v>
+        <v>1095.925466217246</v>
       </c>
       <c r="S13">
-        <v>0.02202868173344973</v>
+        <v>0.02222832028879543</v>
       </c>
       <c r="T13">
-        <v>0.02202868173344973</v>
+        <v>0.01887926940950728</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.2985506697716</v>
+        <v>11.51669733333333</v>
       </c>
       <c r="H14">
-        <v>11.2985506697716</v>
+        <v>34.550092</v>
       </c>
       <c r="I14">
-        <v>0.179348062367342</v>
+        <v>0.1784791531208948</v>
       </c>
       <c r="J14">
-        <v>0.179348062367342</v>
+        <v>0.1984444272823498</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N14">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O14">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P14">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q14">
-        <v>357.6646197883917</v>
+        <v>365.806579144918</v>
       </c>
       <c r="R14">
-        <v>357.6646197883917</v>
+        <v>2194.839474869508</v>
       </c>
       <c r="S14">
-        <v>0.04682092146411576</v>
+        <v>0.04451725626769933</v>
       </c>
       <c r="T14">
-        <v>0.04682092146411576</v>
+        <v>0.03781002178889858</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.2985506697716</v>
+        <v>11.51669733333333</v>
       </c>
       <c r="H15">
-        <v>11.2985506697716</v>
+        <v>34.550092</v>
       </c>
       <c r="I15">
-        <v>0.179348062367342</v>
+        <v>0.1784791531208948</v>
       </c>
       <c r="J15">
-        <v>0.179348062367342</v>
+        <v>0.1984444272823498</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N15">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O15">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P15">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q15">
-        <v>182.5120880042477</v>
+        <v>205.2019755730209</v>
       </c>
       <c r="R15">
-        <v>182.5120880042477</v>
+        <v>1846.817780157188</v>
       </c>
       <c r="S15">
-        <v>0.02389217067026212</v>
+        <v>0.02497229261041643</v>
       </c>
       <c r="T15">
-        <v>0.02389217067026212</v>
+        <v>0.03181472782287195</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.2985506697716</v>
+        <v>11.51669733333333</v>
       </c>
       <c r="H16">
-        <v>11.2985506697716</v>
+        <v>34.550092</v>
       </c>
       <c r="I16">
-        <v>0.179348062367342</v>
+        <v>0.1784791531208948</v>
       </c>
       <c r="J16">
-        <v>0.179348062367342</v>
+        <v>0.1984444272823498</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N16">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O16">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P16">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q16">
-        <v>132.0711952372327</v>
+        <v>153.4883883033916</v>
       </c>
       <c r="R16">
-        <v>132.0711952372327</v>
+        <v>1381.395494730524</v>
       </c>
       <c r="S16">
-        <v>0.01728908792693246</v>
+        <v>0.01867894757986654</v>
       </c>
       <c r="T16">
-        <v>0.01728908792693246</v>
+        <v>0.02379699944022228</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.2985506697716</v>
+        <v>11.51669733333333</v>
       </c>
       <c r="H17">
-        <v>11.2985506697716</v>
+        <v>34.550092</v>
       </c>
       <c r="I17">
-        <v>0.179348062367342</v>
+        <v>0.1784791531208948</v>
       </c>
       <c r="J17">
-        <v>0.179348062367342</v>
+        <v>0.1984444272823498</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N17">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O17">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P17">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q17">
-        <v>249.0249571000346</v>
+        <v>276.8832011624863</v>
       </c>
       <c r="R17">
-        <v>249.0249571000346</v>
+        <v>2491.948810462376</v>
       </c>
       <c r="S17">
-        <v>0.03259919296989391</v>
+        <v>0.03369562256420829</v>
       </c>
       <c r="T17">
-        <v>0.03259919296989391</v>
+        <v>0.0429282596286474</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.2985506697716</v>
+        <v>11.51669733333333</v>
       </c>
       <c r="H18">
-        <v>11.2985506697716</v>
+        <v>34.550092</v>
       </c>
       <c r="I18">
-        <v>0.179348062367342</v>
+        <v>0.1784791531208948</v>
       </c>
       <c r="J18">
-        <v>0.179348062367342</v>
+        <v>0.1984444272823498</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N18">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O18">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P18">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q18">
-        <v>263.5013680757339</v>
+        <v>271.0767818011502</v>
       </c>
       <c r="R18">
-        <v>263.5013680757339</v>
+        <v>2439.691036210352</v>
       </c>
       <c r="S18">
-        <v>0.03449426132129108</v>
+        <v>0.03298900362009159</v>
       </c>
       <c r="T18">
-        <v>0.03449426132129108</v>
+        <v>0.04202802632879487</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.2985506697716</v>
+        <v>11.51669733333333</v>
       </c>
       <c r="H19">
-        <v>11.2985506697716</v>
+        <v>34.550092</v>
       </c>
       <c r="I19">
-        <v>0.179348062367342</v>
+        <v>0.1784791531208948</v>
       </c>
       <c r="J19">
-        <v>0.179348062367342</v>
+        <v>0.1984444272823498</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N19">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O19">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P19">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q19">
-        <v>185.2640907873529</v>
+        <v>194.139489104716</v>
       </c>
       <c r="R19">
-        <v>185.2640907873529</v>
+        <v>1164.836934628296</v>
       </c>
       <c r="S19">
-        <v>0.02425242801484664</v>
+        <v>0.02362603047861265</v>
       </c>
       <c r="T19">
-        <v>0.02425242801484664</v>
+        <v>0.02006639227291472</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.3664908504093</v>
+        <v>14.512819</v>
       </c>
       <c r="H20">
-        <v>14.3664908504093</v>
+        <v>43.53845699999999</v>
       </c>
       <c r="I20">
-        <v>0.2280471515636563</v>
+        <v>0.2249113239278927</v>
       </c>
       <c r="J20">
-        <v>0.2280471515636563</v>
+        <v>0.2500706557922396</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N20">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O20">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P20">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q20">
-        <v>454.7827095604752</v>
+        <v>460.9728395634404</v>
       </c>
       <c r="R20">
-        <v>454.7827095604752</v>
+        <v>2765.837037380642</v>
       </c>
       <c r="S20">
-        <v>0.05953439157657459</v>
+        <v>0.0560986247958242</v>
       </c>
       <c r="T20">
-        <v>0.05953439157657459</v>
+        <v>0.04764647248479176</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.3664908504093</v>
+        <v>14.512819</v>
       </c>
       <c r="H21">
-        <v>14.3664908504093</v>
+        <v>43.53845699999999</v>
       </c>
       <c r="I21">
-        <v>0.2280471515636563</v>
+        <v>0.2249113239278927</v>
       </c>
       <c r="J21">
-        <v>0.2280471515636563</v>
+        <v>0.2500706557922396</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N21">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O21">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P21">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q21">
-        <v>232.0703176042956</v>
+        <v>258.5862112842136</v>
       </c>
       <c r="R21">
-        <v>232.0703176042956</v>
+        <v>2327.275901557923</v>
       </c>
       <c r="S21">
-        <v>0.03037970633251822</v>
+        <v>0.03146894914230716</v>
       </c>
       <c r="T21">
-        <v>0.03037970633251822</v>
+        <v>0.04009147527835277</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.3664908504093</v>
+        <v>14.512819</v>
       </c>
       <c r="H22">
-        <v>14.3664908504093</v>
+        <v>43.53845699999999</v>
       </c>
       <c r="I22">
-        <v>0.2280471515636563</v>
+        <v>0.2249113239278927</v>
       </c>
       <c r="J22">
-        <v>0.2280471515636563</v>
+        <v>0.2500706557922396</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N22">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O22">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P22">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q22">
-        <v>167.9330095898644</v>
+        <v>193.4190969490477</v>
       </c>
       <c r="R22">
-        <v>167.9330095898644</v>
+        <v>1740.771872541429</v>
       </c>
       <c r="S22">
-        <v>0.02198366239828689</v>
+        <v>0.02353836151901632</v>
       </c>
       <c r="T22">
-        <v>0.02198366239828689</v>
+        <v>0.02998789805992823</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.3664908504093</v>
+        <v>14.512819</v>
       </c>
       <c r="H23">
-        <v>14.3664908504093</v>
+        <v>43.53845699999999</v>
       </c>
       <c r="I23">
-        <v>0.2280471515636563</v>
+        <v>0.2249113239278927</v>
       </c>
       <c r="J23">
-        <v>0.2280471515636563</v>
+        <v>0.2500706557922396</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N23">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O23">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P23">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q23">
-        <v>316.6436892895341</v>
+        <v>348.9156366887607</v>
       </c>
       <c r="R23">
-        <v>316.6436892895341</v>
+        <v>3140.240730198846</v>
       </c>
       <c r="S23">
-        <v>0.0414509808577223</v>
+        <v>0.04246169341893539</v>
       </c>
       <c r="T23">
-        <v>0.0414509808577223</v>
+        <v>0.0540962433884894</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.3664908504093</v>
+        <v>14.512819</v>
       </c>
       <c r="H24">
-        <v>14.3664908504093</v>
+        <v>43.53845699999999</v>
       </c>
       <c r="I24">
-        <v>0.2280471515636563</v>
+        <v>0.2249113239278927</v>
       </c>
       <c r="J24">
-        <v>0.2280471515636563</v>
+        <v>0.2500706557922396</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N24">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O24">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P24">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q24">
-        <v>335.0509374320388</v>
+        <v>341.5986506822546</v>
       </c>
       <c r="R24">
-        <v>335.0509374320388</v>
+        <v>3074.387856140292</v>
       </c>
       <c r="S24">
-        <v>0.04386062461885418</v>
+        <v>0.04157124431350868</v>
       </c>
       <c r="T24">
-        <v>0.04386062461885418</v>
+        <v>0.05296181026409721</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.3664908504093</v>
+        <v>14.512819</v>
       </c>
       <c r="H25">
-        <v>14.3664908504093</v>
+        <v>43.53845699999999</v>
       </c>
       <c r="I25">
-        <v>0.2280471515636563</v>
+        <v>0.2249113239278927</v>
       </c>
       <c r="J25">
-        <v>0.2280471515636563</v>
+        <v>0.2500706557922396</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N25">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O25">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P25">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q25">
-        <v>235.5695825949425</v>
+        <v>244.645768190361</v>
       </c>
       <c r="R25">
-        <v>235.5695825949425</v>
+        <v>1467.874609142166</v>
       </c>
       <c r="S25">
-        <v>0.03083778577970017</v>
+        <v>0.02977245073830096</v>
       </c>
       <c r="T25">
-        <v>0.03083778577970017</v>
+        <v>0.02528675631658028</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.94705286081018</v>
+        <v>8.186035666666667</v>
       </c>
       <c r="H26">
-        <v>7.94705286081018</v>
+        <v>24.558107</v>
       </c>
       <c r="I26">
-        <v>0.1261479081498831</v>
+        <v>0.1268624737558534</v>
       </c>
       <c r="J26">
-        <v>0.1261479081498831</v>
+        <v>0.1410537337716399</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N26">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O26">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P26">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q26">
-        <v>251.5702874621336</v>
+        <v>260.0142746926655</v>
       </c>
       <c r="R26">
-        <v>251.5702874621336</v>
+        <v>1560.085648155993</v>
       </c>
       <c r="S26">
-        <v>0.03293239537905189</v>
+        <v>0.03164273897645715</v>
       </c>
       <c r="T26">
-        <v>0.03293239537905189</v>
+        <v>0.02687525581014669</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.94705286081018</v>
+        <v>8.186035666666667</v>
       </c>
       <c r="H27">
-        <v>7.94705286081018</v>
+        <v>24.558107</v>
       </c>
       <c r="I27">
-        <v>0.1261479081498831</v>
+        <v>0.1268624737558534</v>
       </c>
       <c r="J27">
-        <v>0.1261479081498831</v>
+        <v>0.1410537337716399</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N27">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O27">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P27">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q27">
-        <v>128.3733864191199</v>
+        <v>145.8569798521414</v>
       </c>
       <c r="R27">
-        <v>128.3733864191199</v>
+        <v>1312.712818669273</v>
       </c>
       <c r="S27">
-        <v>0.01680501763682491</v>
+        <v>0.0177502344700534</v>
       </c>
       <c r="T27">
-        <v>0.01680501763682491</v>
+        <v>0.0226138179328138</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.94705286081018</v>
+        <v>8.186035666666667</v>
       </c>
       <c r="H28">
-        <v>7.94705286081018</v>
+        <v>24.558107</v>
       </c>
       <c r="I28">
-        <v>0.1261479081498831</v>
+        <v>0.1268624737558534</v>
       </c>
       <c r="J28">
-        <v>0.1261479081498831</v>
+        <v>0.1410537337716399</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N28">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O28">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P28">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q28">
-        <v>92.89481461978404</v>
+        <v>109.0991092936088</v>
       </c>
       <c r="R28">
-        <v>92.89481461978404</v>
+        <v>981.891983642479</v>
       </c>
       <c r="S28">
-        <v>0.01216061242599223</v>
+        <v>0.01327694274486313</v>
       </c>
       <c r="T28">
-        <v>0.01216061242599223</v>
+        <v>0.01691483943174215</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.94705286081018</v>
+        <v>8.186035666666667</v>
       </c>
       <c r="H29">
-        <v>7.94705286081018</v>
+        <v>24.558107</v>
       </c>
       <c r="I29">
-        <v>0.1261479081498831</v>
+        <v>0.1268624737558534</v>
       </c>
       <c r="J29">
-        <v>0.1261479081498831</v>
+        <v>0.1410537337716399</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N29">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O29">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P29">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q29">
-        <v>175.1564917994007</v>
+        <v>196.8077908635051</v>
       </c>
       <c r="R29">
-        <v>175.1564917994007</v>
+        <v>1771.270117771546</v>
       </c>
       <c r="S29">
-        <v>0.0229292691888893</v>
+        <v>0.02395075255844302</v>
       </c>
       <c r="T29">
-        <v>0.0229292691888893</v>
+        <v>0.03051328469064867</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.94705286081018</v>
+        <v>8.186035666666667</v>
       </c>
       <c r="H30">
-        <v>7.94705286081018</v>
+        <v>24.558107</v>
       </c>
       <c r="I30">
-        <v>0.1261479081498831</v>
+        <v>0.1268624737558534</v>
       </c>
       <c r="J30">
-        <v>0.1261479081498831</v>
+        <v>0.1410537337716399</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N30">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O30">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P30">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q30">
-        <v>185.3387538099158</v>
+        <v>192.6806045172991</v>
       </c>
       <c r="R30">
-        <v>185.3387538099158</v>
+        <v>1734.125440655692</v>
       </c>
       <c r="S30">
-        <v>0.02426220195199971</v>
+        <v>0.02344848982531209</v>
       </c>
       <c r="T30">
-        <v>0.02426220195199971</v>
+        <v>0.02987340142484603</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.94705286081018</v>
+        <v>8.186035666666667</v>
       </c>
       <c r="H31">
-        <v>7.94705286081018</v>
+        <v>24.558107</v>
       </c>
       <c r="I31">
-        <v>0.1261479081498831</v>
+        <v>0.1268624737558534</v>
       </c>
       <c r="J31">
-        <v>0.1261479081498831</v>
+        <v>0.1410537337716399</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N31">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O31">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P31">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q31">
-        <v>130.3090604918084</v>
+        <v>137.993795974811</v>
       </c>
       <c r="R31">
-        <v>130.3090604918084</v>
+        <v>827.962775848866</v>
       </c>
       <c r="S31">
-        <v>0.01705841156712501</v>
+        <v>0.01679331518072457</v>
       </c>
       <c r="T31">
-        <v>0.01705841156712501</v>
+        <v>0.01426313448144257</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.5481706401399</v>
+        <v>7.647901500000001</v>
       </c>
       <c r="H32">
-        <v>7.5481706401399</v>
+        <v>15.295803</v>
       </c>
       <c r="I32">
-        <v>0.1198162329217148</v>
+        <v>0.118522779870342</v>
       </c>
       <c r="J32">
-        <v>0.1198162329217148</v>
+        <v>0.08785408924985347</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>31.6557964151363</v>
+        <v>31.7631495</v>
       </c>
       <c r="N32">
-        <v>31.6557964151363</v>
+        <v>63.52629899999999</v>
       </c>
       <c r="O32">
-        <v>0.261061763623723</v>
+        <v>0.2494255238736205</v>
       </c>
       <c r="P32">
-        <v>0.261061763623723</v>
+        <v>0.1905320411699034</v>
       </c>
       <c r="Q32">
-        <v>238.9433530909777</v>
+        <v>242.9214387057742</v>
       </c>
       <c r="R32">
-        <v>238.9433530909777</v>
+        <v>971.685754823097</v>
       </c>
       <c r="S32">
-        <v>0.03127943707729364</v>
+        <v>0.02956260646011786</v>
       </c>
       <c r="T32">
-        <v>0.03127943707729364</v>
+        <v>0.01673901894989745</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.5481706401399</v>
+        <v>7.647901500000001</v>
       </c>
       <c r="H33">
-        <v>7.5481706401399</v>
+        <v>15.295803</v>
       </c>
       <c r="I33">
-        <v>0.1198162329217148</v>
+        <v>0.118522779870342</v>
       </c>
       <c r="J33">
-        <v>0.1198162329217148</v>
+        <v>0.08785408924985347</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>16.1535840603472</v>
+        <v>17.81777966666667</v>
       </c>
       <c r="N33">
-        <v>16.1535840603472</v>
+        <v>53.453339</v>
       </c>
       <c r="O33">
-        <v>0.1332167761106112</v>
+        <v>0.139917139754138</v>
       </c>
       <c r="P33">
-        <v>0.1332167761106112</v>
+        <v>0.1603205907999899</v>
       </c>
       <c r="Q33">
-        <v>121.9300089373446</v>
+        <v>136.2686238393695</v>
       </c>
       <c r="R33">
-        <v>121.9300089373446</v>
+        <v>817.611743036217</v>
       </c>
       <c r="S33">
-        <v>0.01596153227554891</v>
+        <v>0.01658336835516757</v>
       </c>
       <c r="T33">
-        <v>0.01596153227554891</v>
+        <v>0.01408481949273155</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.5481706401399</v>
+        <v>7.647901500000001</v>
       </c>
       <c r="H34">
-        <v>7.5481706401399</v>
+        <v>15.295803</v>
       </c>
       <c r="I34">
-        <v>0.1198162329217148</v>
+        <v>0.118522779870342</v>
       </c>
       <c r="J34">
-        <v>0.1198162329217148</v>
+        <v>0.08785408924985347</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>11.6892156434346</v>
+        <v>13.32746566666667</v>
       </c>
       <c r="N34">
-        <v>11.6892156434346</v>
+        <v>39.982397</v>
       </c>
       <c r="O34">
-        <v>0.09639963598558889</v>
+        <v>0.1046561867492399</v>
       </c>
       <c r="P34">
-        <v>0.09639963598558889</v>
+        <v>0.1199177007191215</v>
       </c>
       <c r="Q34">
-        <v>88.23219432603709</v>
+        <v>101.9271446632985</v>
       </c>
       <c r="R34">
-        <v>88.23219432603709</v>
+        <v>611.562867979791</v>
       </c>
       <c r="S34">
-        <v>0.01155024123881783</v>
+        <v>0.01240414218414956</v>
       </c>
       <c r="T34">
-        <v>0.01155024123881783</v>
+        <v>0.01053526038161491</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.5481706401399</v>
+        <v>7.647901500000001</v>
       </c>
       <c r="H35">
-        <v>7.5481706401399</v>
+        <v>15.295803</v>
       </c>
       <c r="I35">
-        <v>0.1198162329217148</v>
+        <v>0.118522779870342</v>
       </c>
       <c r="J35">
-        <v>0.1198162329217148</v>
+        <v>0.08785408924985347</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.0404337138817</v>
+        <v>24.04189266666667</v>
       </c>
       <c r="N35">
-        <v>22.0404337138817</v>
+        <v>72.12567800000001</v>
       </c>
       <c r="O35">
-        <v>0.1817649577006526</v>
+        <v>0.1887930437533183</v>
       </c>
       <c r="P35">
-        <v>0.1817649577006526</v>
+        <v>0.2163238354260682</v>
       </c>
       <c r="Q35">
-        <v>166.3649546550715</v>
+        <v>183.870026988239</v>
       </c>
       <c r="R35">
-        <v>166.3649546550715</v>
+        <v>1103.220161929434</v>
       </c>
       <c r="S35">
-        <v>0.02177839250886702</v>
+        <v>0.02237627636582639</v>
       </c>
       <c r="T35">
-        <v>0.02177839250886702</v>
+        <v>0.01900493354439241</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.5481706401399</v>
+        <v>7.647901500000001</v>
       </c>
       <c r="H36">
-        <v>7.5481706401399</v>
+        <v>15.295803</v>
       </c>
       <c r="I36">
-        <v>0.1198162329217148</v>
+        <v>0.118522779870342</v>
       </c>
       <c r="J36">
-        <v>0.1198162329217148</v>
+        <v>0.08785408924985347</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>23.3216963641816</v>
+        <v>23.53771866666667</v>
       </c>
       <c r="N36">
-        <v>23.3216963641816</v>
+        <v>70.613156</v>
       </c>
       <c r="O36">
-        <v>0.1923313854968764</v>
+        <v>0.184833931824778</v>
       </c>
       <c r="P36">
-        <v>0.1923313854968764</v>
+        <v>0.211787385034485</v>
       </c>
       <c r="Q36">
-        <v>176.036143774373</v>
+        <v>180.014153897378</v>
       </c>
       <c r="R36">
-        <v>176.036143774373</v>
+        <v>1080.084923384268</v>
       </c>
       <c r="S36">
-        <v>0.02304442208284985</v>
+        <v>0.02190703141423796</v>
       </c>
       <c r="T36">
-        <v>0.02304442208284985</v>
+        <v>0.01860638782681272</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.5481706401399</v>
+        <v>7.647901500000001</v>
       </c>
       <c r="H37">
-        <v>7.5481706401399</v>
+        <v>15.295803</v>
       </c>
       <c r="I37">
-        <v>0.1198162329217148</v>
+        <v>0.118522779870342</v>
       </c>
       <c r="J37">
-        <v>0.1198162329217148</v>
+        <v>0.08785408924985347</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.3971553699372</v>
+        <v>16.857219</v>
       </c>
       <c r="N37">
-        <v>16.3971553699372</v>
+        <v>33.714438</v>
       </c>
       <c r="O37">
-        <v>0.135225481082548</v>
+        <v>0.1323741740449054</v>
       </c>
       <c r="P37">
-        <v>0.135225481082548</v>
+        <v>0.1011184468504321</v>
       </c>
       <c r="Q37">
-        <v>123.7685267451723</v>
+        <v>128.9223504759285</v>
       </c>
       <c r="R37">
-        <v>123.7685267451723</v>
+        <v>515.689401903714</v>
       </c>
       <c r="S37">
-        <v>0.01620220773833751</v>
+        <v>0.01568935509084266</v>
       </c>
       <c r="T37">
-        <v>0.01620220773833751</v>
+        <v>0.008883669054404426</v>
       </c>
     </row>
   </sheetData>
